--- a/MLP/PFMatrix.xlsx
+++ b/MLP/PFMatrix.xlsx
@@ -429,34 +429,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6626620663302619</v>
+        <v>0.5171761280931587</v>
       </c>
       <c r="C2">
-        <v>0.6626620663302619</v>
+        <v>0.6721495852664137</v>
       </c>
       <c r="D2">
-        <v>0.6626620663302619</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="E2">
-        <v>0.6626620663302619</v>
+        <v>0.6676693883397794</v>
       </c>
       <c r="F2">
-        <v>0.6626620663302619</v>
+        <v>0.6516376010208422</v>
       </c>
       <c r="G2">
-        <v>0.6626620663302619</v>
+        <v>0.6802463950720986</v>
       </c>
       <c r="H2">
-        <v>0.6626620663302619</v>
+        <v>0.657245774452757</v>
       </c>
       <c r="I2">
-        <v>0.6626620663302619</v>
+        <v>0.6540570175438597</v>
       </c>
       <c r="J2">
-        <v>0.6626620663302619</v>
+        <v>0.7151211361737677</v>
       </c>
       <c r="K2">
-        <v>0.6626620663302619</v>
+        <v>0.7224287484510533</v>
       </c>
       <c r="L2">
         <v>0.6626620663302619</v>
